--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2490.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2490.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.38475656972423</v>
+        <v>1.380786895751953</v>
       </c>
       <c r="B1">
-        <v>3.491956484470129</v>
+        <v>1.147139072418213</v>
       </c>
       <c r="C1">
-        <v>4.787818874973269</v>
+        <v>4.374249935150146</v>
       </c>
       <c r="D1">
-        <v>3.231975734770247</v>
+        <v>2.344269275665283</v>
       </c>
       <c r="E1">
-        <v>2.257125660445757</v>
+        <v>0.7315429449081421</v>
       </c>
     </row>
   </sheetData>
